--- a/medicine/Enfance/Anne_Romby/Anne_Romby.xlsx
+++ b/medicine/Enfance/Anne_Romby/Anne_Romby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Romby (née en 1959) est graveuse, illustratrice, peintre et autrice française, notamment en littérature jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Romby est née à Saint-Quentin. Elle étudie les Beaux-Arts à Saint-Quentin (Aisne) en 1976, puis aux Beaux-Arts de Reims jusqu'en 1980 et à l'École supérieure des arts décoratifs de Strasbourg, entre 1980 et 1983. Diplôme de gravure et d’Illustration.
-Elle vit actuellement à Strasbourg[1],[2],[3].
+Elle vit actuellement à Strasbourg.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elle a obtenu plusieurs prix :
 Le prix UNICEF de Bologne en 1992 pour l’oiseau aux ailes de plomb, écrit par Patricia Colomb, aux Éditions Casterman
@@ -579,9 +595,11 @@
           <t>Publications illustrées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a participé à de nombreuses œuvres en tant qu’illustratrice ou auteure[4],[5],[6],[7],[8],[9], dont :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a participé à de nombreuses œuvres en tant qu’illustratrice ou auteure dont :
 Le Tigre du terrain vague, récit de Sebastià Sorribas, Éd.de l'amitié, 1984
 Le Mouton noir et le loup blanc, Fable de Bernard Clavel, Flammarion, 1984
 Au revoir, Fénimore, récit d’ Yvon Mauffret, Gallimard, 1984
